--- a/input/configurations/bay_data.xlsx
+++ b/input/configurations/bay_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\young\PycharmProjects\2025_MAS_KSOE\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\young\PycharmProjects\2025_MAS_KSOE\input\configurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E054B0-7315-47C0-94C3-857AC8CE6042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7481A3F-EB7B-4A78-8830-4F9796C1CB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6930" yWindow="5385" windowWidth="28800" windowHeight="15345" xr2:uid="{F983E655-1C09-4649-8274-FFD858F2B011}"/>
+    <workbookView xWindow="0" yWindow="3570" windowWidth="22935" windowHeight="11190" xr2:uid="{F983E655-1C09-4649-8274-FFD858F2B011}"/>
   </bookViews>
   <sheets>
     <sheet name="bays" sheetId="2" r:id="rId1"/>
@@ -38,14 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
-    <t>Bay_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bay_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>M012</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -162,43 +154,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Team_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Block_Breadth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Block_Height</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Capacity_H01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Capacity_H02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Block_Weight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Block_T/O_Weight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bay_Breadth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bay_Length</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>B05+B08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bay_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bay_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>capacity_h1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>capacity_h2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bay_breadth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bay_length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>block_breadth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>block_height</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>block_weight</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>block_turnover_weight</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -645,53 +645,53 @@
     <col min="8" max="8" width="14.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.75" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="K1" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D2" s="5">
         <v>1900</v>
@@ -720,13 +720,13 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D3" s="5">
         <v>1700</v>
@@ -755,13 +755,13 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D4" s="5">
         <v>8200</v>
@@ -790,13 +790,13 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" s="5">
         <v>4500</v>
@@ -825,13 +825,13 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D6" s="5">
         <v>900</v>
@@ -860,13 +860,13 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" s="5">
         <v>1300</v>
@@ -895,13 +895,13 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" s="5">
         <v>1200</v>
@@ -930,13 +930,13 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D9" s="5">
         <v>1700</v>
@@ -965,13 +965,13 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" s="5">
         <v>1799.85</v>
@@ -1000,13 +1000,13 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" s="5">
         <v>1200</v>
@@ -1035,13 +1035,13 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D12" s="5">
         <v>1500</v>
@@ -1070,13 +1070,13 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D13" s="5">
         <v>2100</v>
@@ -1105,13 +1105,13 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D14" s="5">
         <v>2700</v>
@@ -1140,13 +1140,13 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15" s="1">
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D15" s="5">
         <v>1700</v>
@@ -1175,13 +1175,13 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1">
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D16" s="5">
         <v>1300</v>
@@ -1210,13 +1210,13 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17" s="1">
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D17" s="5">
         <v>2000</v>
@@ -1245,13 +1245,13 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B18" s="1">
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D18" s="5">
         <v>1800</v>
